--- a/Exercise5/Results.xlsx
+++ b/Exercise5/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\Desktop\RPA_Lecture\Exercise5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA06B51-2B91-44FB-9520-C79C2A9AD341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B66784-07B4-40C2-814E-AA74525DD179}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2352" windowWidth="17268" windowHeight="8880" xr2:uid="{8EC57D2C-EFE3-469B-8352-EF203A9215BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="5496" xr2:uid="{BC7045A9-7A98-41E9-ABEF-727F5D6CAF97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>IsBankrupt</t>
+  </si>
+  <si>
+    <t>InvoiceID</t>
+  </si>
+  <si>
+    <t>InvoiceValue</t>
+  </si>
+  <si>
     <t>Agitude</t>
   </si>
   <si>
@@ -52,28 +67,7 @@
     <t>Unit&amp;Products Inc.</t>
   </si>
   <si>
-    <t>ClientID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsBankrupt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvoiceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvoiceValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The total loss is: 6625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -436,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40106B4-35BE-4E41-A531-92F0EB611A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536386C5-498E-4253-8290-82E5C5ADB0DF}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -445,19 +439,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -465,7 +459,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -482,7 +476,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -499,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -519,7 +513,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -536,7 +530,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -553,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -570,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -587,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -604,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -621,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -638,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -655,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -672,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -689,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -706,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -723,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -740,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -757,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -774,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -791,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -808,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -825,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -842,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -876,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -893,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -910,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -927,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -944,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -961,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -980,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA2118-AB6B-4008-8FA8-2B42BEF54526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9C2B2E-7882-4CD2-AEC2-EADB7EAFEA3B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
